--- a/dataset/task_sheet_answers_v2/IncomeStatement2/6_IncomeStatement2/6_IncomeStatement2_gt1.xlsx
+++ b/dataset/task_sheet_answers_v2/IncomeStatement2/6_IncomeStatement2/6_IncomeStatement2_gt1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers\IncomeStatement2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers_v2\IncomeStatement2\6_IncomeStatement2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5154BCB-EA05-49F3-AC89-58B021BD4665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC962C12-A811-4E4D-9F03-C076EB648A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9876" windowHeight="12360" xr2:uid="{507D42A9-D77B-465E-BC83-B81E50047239}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21150" windowHeight="12750" xr2:uid="{507D42A9-D77B-465E-BC83-B81E50047239}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,13 +68,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.00;\-\$#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -82,13 +82,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -102,7 +102,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -154,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -165,7 +165,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="1" xr:uid="{508552CE-3394-4DC7-BEAA-176A5973C504}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -489,22 +499,22 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.9" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -559,7 +569,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -582,7 +592,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -605,7 +615,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -628,7 +638,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -651,7 +661,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -674,7 +684,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -697,7 +707,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -720,7 +730,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -746,8 +756,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F2:F10">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F2&gt;$B2*0.1</formula>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$F2&gt;$B2*1.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
